--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Il13</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,22 +540,22 @@
         <v>1.276646</v>
       </c>
       <c r="I2">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J2">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N2">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1036124475104444</v>
+        <v>0.2606200465726666</v>
       </c>
       <c r="R2">
-        <v>0.9325120275940001</v>
+        <v>2.345580419154</v>
       </c>
       <c r="S2">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="T2">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,22 +602,22 @@
         <v>0.521589</v>
       </c>
       <c r="I3">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J3">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N3">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,78 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.04233210528566667</v>
+        <v>0.106479438679</v>
       </c>
       <c r="R3">
-        <v>0.380988947571</v>
+        <v>0.9583149481109998</v>
       </c>
       <c r="S3">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="T3">
-        <v>0.2796941317153344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.06662</v>
-      </c>
-      <c r="I4">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J4">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.2434796666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.7304390000000001</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.005406871797777778</v>
-      </c>
-      <c r="R4">
-        <v>0.04866184618</v>
-      </c>
-      <c r="S4">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="T4">
-        <v>0.03572395709049765</v>
+        <v>0.2900560827700495</v>
       </c>
     </row>
   </sheetData>
